--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1530293.833116209</v>
+        <v>-1532244.05894477</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>108.6056664494115</v>
+        <v>223.6587631275181</v>
       </c>
       <c r="F2" t="n">
-        <v>323.8371762263243</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>137.7974889696603</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>132.997194893274</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>91.29290203716434</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>289.5779376324741</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>148.3903012678882</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2381480623299</v>
+        <v>44.60563665982743</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>17.65675159345384</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>175.5255384092738</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>116.8224079003185</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>27.48958483063802</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238289</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>244.5306071575857</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,16 +1816,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>163.1406881958617</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>4.161189105176478</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>70.85031738433254</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2254,7 +2254,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>87.44132015039854</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>128.6565145316705</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>234.8031540381808</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.03129353024028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463099</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224545</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539622</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689367</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3086,7 +3086,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
         <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1231.905553626649</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="C2" t="n">
-        <v>862.9430366862371</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="D2" t="n">
-        <v>504.6773380794866</v>
+        <v>419.0503071710497</v>
       </c>
       <c r="E2" t="n">
-        <v>394.9746446962426</v>
+        <v>193.1323646180011</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>193.1323646180011</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>193.1323646180011</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>193.1323646180011</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W2" t="n">
-        <v>1618.50539369077</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X2" t="n">
-        <v>1618.50539369077</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y2" t="n">
-        <v>1618.50539369077</v>
+        <v>777.3160057778002</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4422,10 +4422,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>188.2835827226615</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>188.2835827226615</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>421.6255084618049</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.603060210037</v>
+        <v>1060.400888678774</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>691.4383717383625</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>691.4383717383625</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>691.4383717383625</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>684.4928709891591</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834949</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X5" t="n">
-        <v>1916.245359491378</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="Y5" t="n">
-        <v>1526.106027515566</v>
+        <v>1447.000728742896</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,10 +4650,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U7" t="n">
-        <v>211.6913543878343</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="V7" t="n">
-        <v>211.6913543878343</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="W7" t="n">
-        <v>211.6913543878343</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6913543878343</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6913543878343</v>
+        <v>426.3476790823676</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.087414675782</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1381.388493300343</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2301.215900344554</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>1970.153013000984</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W8" t="n">
-        <v>1970.153013000984</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X8" t="n">
-        <v>1596.687254739904</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="Y8" t="n">
-        <v>1596.687254739904</v>
+        <v>1739.654191907093</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>382.8183646524922</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="C10" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>610.1265519838905</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>382.8183646524922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>382.8183646524922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>382.8183646524922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>382.8183646524922</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>382.8183646524922</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y10" t="n">
-        <v>382.8183646524922</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5036,16 +5036,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5060,31 +5060,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5115,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
@@ -5124,19 +5124,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P12" t="n">
-        <v>2358.217138262064</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>395.5481934947356</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C13" t="n">
-        <v>395.5481934947356</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5481934947356</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1160.153899630595</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>871.0252608441536</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>616.3407726382658</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W13" t="n">
-        <v>616.3407726382658</v>
+        <v>762.8670083965222</v>
       </c>
       <c r="X13" t="n">
-        <v>616.3407726382658</v>
+        <v>762.8670083965222</v>
       </c>
       <c r="Y13" t="n">
-        <v>395.5481934947356</v>
+        <v>762.8670083965222</v>
       </c>
     </row>
     <row r="14">
@@ -5261,10 +5261,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,22 +5273,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5300,22 +5300,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590536</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M15" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>395.2468244550147</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550147</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,10 +5452,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
         <v>1387.841167119728</v>
@@ -5464,22 +5464,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>874.9271131227918</v>
+        <v>1223.052593184515</v>
       </c>
       <c r="V16" t="n">
-        <v>620.2426249169049</v>
+        <v>968.3681049786276</v>
       </c>
       <c r="W16" t="n">
-        <v>616.0394035985448</v>
+        <v>968.3681049786276</v>
       </c>
       <c r="X16" t="n">
-        <v>616.0394035985448</v>
+        <v>968.3681049786276</v>
       </c>
       <c r="Y16" t="n">
-        <v>395.2468244550147</v>
+        <v>747.5755258350974</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,7 +5504,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,28 +5513,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5546,19 +5546,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5580,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1595.645765494012</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1925.508393158045</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2205.048458376742</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5674,13 +5674,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>938.3016445311218</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>938.3016445311218</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201016</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.9110074201016</v>
+        <v>710.3120936331045</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,40 +5762,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>1113.485206214223</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N21" t="n">
-        <v>1443.347833878256</v>
+        <v>1800.67826817104</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>2080.218333389737</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>415.509052552801</v>
+        <v>672.7698012891913</v>
       </c>
       <c r="C22" t="n">
-        <v>415.509052552801</v>
+        <v>503.8336183612844</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>353.7169789489486</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>353.7169789489486</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>353.7169789489486</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>185.5416572687692</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="W22" t="n">
-        <v>955.1031435655738</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="X22" t="n">
-        <v>727.1135926675564</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="Y22" t="n">
-        <v>597.1575173830407</v>
+        <v>854.418266119431</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,34 +5972,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6008,7 +6008,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>943.017270764214</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1711.385417156675</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>712.8170085027681</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>712.8170085027681</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6175,22 +6175,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>955.1031435655738</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X25" t="n">
-        <v>955.1031435655738</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y25" t="n">
-        <v>894.4654733330078</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="26">
@@ -6218,10 +6218,10 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823783</v>
@@ -6312,19 +6312,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1236.836466556557</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C28" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F28" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6388,7 +6388,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,7 +6403,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="29">
@@ -6440,46 +6440,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,22 +6540,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M30" t="n">
-        <v>841.863114014129</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1646.27469227828</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1925.814757496977</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103129</v>
@@ -6646,25 +6646,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T31" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,49 +6683,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504507</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,16 +6920,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6938,16 +6938,16 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7014,22 +7014,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.995055864554</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>2013.406634128704</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>2292.946699347402</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,10 +7114,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
     <row r="38">
@@ -7151,67 +7151,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M39" t="n">
-        <v>841.863114014129</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1646.27469227828</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1925.814757496977</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2446.115379232724</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504505</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,7 +7600,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859417</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>570.0299571250974</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,55 +7801,55 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,7 +8772,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>180.0237016735871</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>176.7176547498456</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>213.2603911806632</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>127.6461250100642</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>148.2747143566558</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>253.7371603504727</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>148.1350559470645</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,22 +9960,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>8.406710013101758</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>199.623080587109</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10668,25 +10668,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>38.86002301949887</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>80.50021372615217</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,22 +11142,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,25 +11373,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>159.0121003135246</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>360.5026862907257</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>158.2716069447437</v>
       </c>
       <c r="F2" t="n">
-        <v>83.03886951538712</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22705,16 +22705,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>12.4238531296572</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22756,10 +22756,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>134.4167533518728</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642701</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>194.0579762277512</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>41.99239117900532</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,16 +23704,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>123.0966642027156</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>282.3618092314145</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64.3050033817197</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,19 +23938,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>181.2873259394955</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>61.47250821713759</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>89.92813882042427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,7 +24415,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>51.71984429841024</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>158.5533598218545</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96832.57803770929</v>
+        <v>96832.57803770927</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26326,13 +26326,13 @@
         <v>97757.26493442721</v>
       </c>
       <c r="G2" t="n">
-        <v>97757.26493442722</v>
+        <v>97757.26493442728</v>
       </c>
       <c r="H2" t="n">
-        <v>97757.26493442722</v>
+        <v>97757.26493442724</v>
       </c>
       <c r="I2" t="n">
-        <v>97757.26493442719</v>
+        <v>97757.26493442721</v>
       </c>
       <c r="J2" t="n">
         <v>102630.2212330356</v>
@@ -26341,7 +26341,7 @@
         <v>102630.2212330356</v>
       </c>
       <c r="L2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
         <v>102630.2212330356</v>
@@ -26353,7 +26353,7 @@
         <v>102630.2212330356</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330356</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>230928.7312963054</v>
+        <v>230928.7312963055</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371248</v>
+        <v>54505.5121037125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,10 +26427,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26439,22 +26439,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="K4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="N4" t="n">
         <v>37464.45686275957</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>37464.45686275959</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26470,25 +26470,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>97715.10582002539</v>
@@ -26497,19 +26497,19 @@
         <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="O5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002538</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-706296.5066771948</v>
+        <v>-706412.4595411014</v>
       </c>
       <c r="C6" t="n">
         <v>-137003.8150815967</v>
@@ -26528,40 +26528,40 @@
         <v>-137003.8150815967</v>
       </c>
       <c r="E6" t="n">
-        <v>-534435.7671126245</v>
+        <v>-534533.2262385968</v>
       </c>
       <c r="F6" t="n">
-        <v>-9275.730635728512</v>
+        <v>-9373.189761700662</v>
       </c>
       <c r="G6" t="n">
-        <v>-9275.730635728512</v>
+        <v>-9373.189761700618</v>
       </c>
       <c r="H6" t="n">
-        <v>-9275.730635728498</v>
+        <v>-9373.189761700691</v>
       </c>
       <c r="I6" t="n">
-        <v>-9275.730635728527</v>
+        <v>-9373.189761700691</v>
       </c>
       <c r="J6" t="n">
-        <v>-263478.0727460548</v>
+        <v>-263478.0727460549</v>
       </c>
       <c r="K6" t="n">
-        <v>-32549.34144974939</v>
+        <v>-32549.34144974942</v>
       </c>
       <c r="L6" t="n">
-        <v>-32549.34144974942</v>
+        <v>-32549.34144974945</v>
       </c>
       <c r="M6" t="n">
         <v>-167350.3566835865</v>
       </c>
       <c r="N6" t="n">
-        <v>-32549.34144974944</v>
+        <v>-32549.34144974943</v>
       </c>
       <c r="O6" t="n">
-        <v>-87054.85355346187</v>
+        <v>-87054.85355346193</v>
       </c>
       <c r="P6" t="n">
-        <v>-32549.34144974948</v>
+        <v>-32549.34144974942</v>
       </c>
     </row>
   </sheetData>
@@ -26701,19 +26701,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964062</v>
@@ -26722,10 +26722,10 @@
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26762,16 +26762,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26923,13 +26923,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>273.3247036228503</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>14.13382727520099</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,7 +27543,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>93.15590403100646</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>265.3938687529068</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04372617964787651</v>
+        <v>241.6762375821503</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>364.2736184788079</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,16 +27907,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>75.69862909901545</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>4.910330425104604</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>95.32313104970044</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="32">
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
@@ -35504,10 +35504,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.0367344586612</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>509.9122281478584</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>546.454964578676</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>215.6591577951384</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M21" t="n">
-        <v>458.699091407122</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>460.8305752819975</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221116</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>397.3927609030888</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
@@ -36452,10 +36452,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>10.73738595686864</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>318.8310870635681</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36765,10 +36765,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36832,16 +36832,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
         <v>713.1546070951472</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>406.7164955186337</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>387.238612517683</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>245.9534379510236</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>168.5132465112263</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>609.76039124675</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>309.5875389014639</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>670.9270633411919</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
